--- a/migforecasting/clustering/recommendation system/input.xlsx
+++ b/migforecasting/clustering/recommendation system/input.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>город Боготол</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>clust</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>гибрид (лучший)</t>
+  </si>
+  <si>
+    <t>сельхоз (скот)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +165,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -438,18 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -510,8 +523,11 @@
       <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="U1" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4706000</v>
       </c>
@@ -571,6 +587,74 @@
       </c>
       <c r="T2" s="2">
         <v>900</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4706000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>18115</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6034.9999999999991</v>
+      </c>
+      <c r="H3" s="2">
+        <v>26548.188450000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>14247.099999999989</v>
+      </c>
+      <c r="J3" s="2">
+        <v>414.99999999999989</v>
+      </c>
+      <c r="K3" s="2">
+        <v>701881.48514999985</v>
+      </c>
+      <c r="L3" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>39.999999999999979</v>
+      </c>
+      <c r="N3" s="2">
+        <v>50.999999999999979</v>
+      </c>
+      <c r="O3" s="2">
+        <v>127.2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>4672.9999999999627</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>11221.57</v>
+      </c>
+      <c r="R3" s="2">
+        <v>56819.699999999822</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5.999999999999992</v>
+      </c>
+      <c r="T3" s="2">
+        <v>900</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/recommendation system/input.xlsx
+++ b/migforecasting/clustering/recommendation system/input.xlsx
@@ -453,12 +453,13 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -478,53 +479,53 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -543,53 +544,53 @@
       <c r="E2" s="2">
         <v>-125</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2">
         <v>18115</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>6034.9999999999991</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>26548.188450000001</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>14247.099999999989</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>414.99999999999989</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>701881.48514999985</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>29.1</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>39.999999999999979</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>50.999999999999979</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>127.2</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>4672.9999999999627</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>11221.57</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <v>56819.699999999822</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>5.999999999999992</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>900</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -608,53 +609,53 @@
       <c r="E3" s="2">
         <v>-125</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
         <v>18115</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>6034.9999999999991</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>26548.188450000001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>14247.099999999989</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>414.99999999999989</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>701881.48514999985</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>29.1</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>39.999999999999979</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>50.999999999999979</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>127.2</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>4672.9999999999627</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>11221.57</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>56819.699999999822</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>5.999999999999992</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>900</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/recommendation system/input.xlsx
+++ b/migforecasting/clustering/recommendation system/input.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
-    <t>город Боготол</t>
-  </si>
-  <si>
     <t>saldo</t>
   </si>
   <si>
@@ -91,26 +88,21 @@
   </si>
   <si>
     <t>сельхоз (скот)</t>
+  </si>
+  <si>
+    <t>город Первомайск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,24 +142,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -453,209 +442,209 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4706000</v>
+        <v>22734000</v>
       </c>
       <c r="B2" s="1">
         <v>2022</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <v>-125</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2">
-        <v>18115</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6034.9999999999991</v>
-      </c>
-      <c r="I2" s="2">
-        <v>26548.188450000001</v>
-      </c>
-      <c r="J2" s="2">
-        <v>14247.099999999989</v>
-      </c>
-      <c r="K2" s="2">
-        <v>414.99999999999989</v>
-      </c>
-      <c r="L2" s="2">
-        <v>701881.48514999985</v>
-      </c>
-      <c r="M2" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>39.999999999999979</v>
-      </c>
-      <c r="O2" s="2">
-        <v>50.999999999999979</v>
-      </c>
-      <c r="P2" s="2">
-        <v>127.2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>4672.9999999999627</v>
-      </c>
-      <c r="R2" s="2">
-        <v>11221.57</v>
-      </c>
-      <c r="S2" s="2">
-        <v>56819.699999999822</v>
-      </c>
-      <c r="T2" s="2">
-        <v>5.999999999999992</v>
-      </c>
-      <c r="U2" s="2">
-        <v>900</v>
+      <c r="E2" s="1">
+        <v>-25.999999999999972</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>17553.999999999989</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5724</v>
+      </c>
+      <c r="I2" s="1">
+        <v>17181.98805</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10266.1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>500.99999999999977</v>
+      </c>
+      <c r="L2" s="1">
+        <v>501756.90374999988</v>
+      </c>
+      <c r="M2" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="N2" s="1">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="O2" s="1">
+        <v>67.999999999999972</v>
+      </c>
+      <c r="P2" s="1">
+        <v>177.4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15040.99999999998</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6682.1999999999935</v>
+      </c>
+      <c r="S2" s="1">
+        <v>250373.95544999951</v>
+      </c>
+      <c r="T2" s="1">
+        <v>11.999999999999989</v>
+      </c>
+      <c r="U2" s="1">
+        <v>996.99999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4706000</v>
+        <v>22734000</v>
       </c>
       <c r="B3" s="1">
         <v>2022</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
-        <v>-125</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2">
-        <v>18115</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6034.9999999999991</v>
-      </c>
-      <c r="I3" s="2">
-        <v>26548.188450000001</v>
-      </c>
-      <c r="J3" s="2">
-        <v>14247.099999999989</v>
-      </c>
-      <c r="K3" s="2">
-        <v>414.99999999999989</v>
-      </c>
-      <c r="L3" s="2">
-        <v>701881.48514999985</v>
-      </c>
-      <c r="M3" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>39.999999999999979</v>
-      </c>
-      <c r="O3" s="2">
-        <v>50.999999999999979</v>
-      </c>
-      <c r="P3" s="2">
-        <v>127.2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>4672.9999999999627</v>
-      </c>
-      <c r="R3" s="2">
-        <v>11221.57</v>
-      </c>
-      <c r="S3" s="2">
-        <v>56819.699999999822</v>
-      </c>
-      <c r="T3" s="2">
-        <v>5.999999999999992</v>
-      </c>
-      <c r="U3" s="2">
-        <v>900</v>
+      <c r="E3" s="1">
+        <v>-25.999999999999972</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17553.999999999989</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5724</v>
+      </c>
+      <c r="I3" s="1">
+        <v>17181.98805</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10266.1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>500.99999999999977</v>
+      </c>
+      <c r="L3" s="1">
+        <v>501756.90374999988</v>
+      </c>
+      <c r="M3" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="O3" s="1">
+        <v>67.999999999999972</v>
+      </c>
+      <c r="P3" s="1">
+        <v>177.4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15040.99999999998</v>
+      </c>
+      <c r="R3" s="1">
+        <v>6682.1999999999935</v>
+      </c>
+      <c r="S3" s="1">
+        <v>250373.95544999951</v>
+      </c>
+      <c r="T3" s="1">
+        <v>11.999999999999989</v>
+      </c>
+      <c r="U3" s="1">
+        <v>996.99999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/recommendation system/input.xlsx
+++ b/migforecasting/clustering/recommendation system/input.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>saldo</t>
   </si>
@@ -87,10 +87,16 @@
     <t>гибрид (лучший)</t>
   </si>
   <si>
+    <t>Перевозский</t>
+  </si>
+  <si>
     <t>сельхоз (скот)</t>
   </si>
   <si>
-    <t>город Первомайск</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>!mundist</t>
   </si>
 </sst>
 </file>
@@ -439,20 +445,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -468,183 +477,192 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>22734000</v>
+        <v>22739000</v>
       </c>
       <c r="B2" s="1">
         <v>2022</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>-25.999999999999972</v>
+        <v>-8.9999999999999734</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1">
-        <v>17553.999999999989</v>
-      </c>
       <c r="H2" s="1">
-        <v>5724</v>
+        <v>15038.999999999991</v>
       </c>
       <c r="I2" s="1">
-        <v>17181.98805</v>
+        <v>2043</v>
       </c>
       <c r="J2" s="1">
-        <v>10266.1</v>
+        <v>17624.230049999998</v>
       </c>
       <c r="K2" s="1">
-        <v>500.99999999999977</v>
+        <v>4332.9999999999936</v>
       </c>
       <c r="L2" s="1">
-        <v>501756.90374999988</v>
+        <v>239.99999999999969</v>
       </c>
       <c r="M2" s="1">
-        <v>32.9</v>
+        <v>684065.85014999984</v>
       </c>
       <c r="N2" s="1">
-        <v>69.999999999999986</v>
+        <v>29.7</v>
       </c>
       <c r="O2" s="1">
-        <v>67.999999999999972</v>
+        <v>45.999999999999993</v>
       </c>
       <c r="P2" s="1">
-        <v>177.4</v>
+        <v>49.999999999999979</v>
       </c>
       <c r="Q2" s="1">
-        <v>15040.99999999998</v>
+        <v>115.09999999999989</v>
       </c>
       <c r="R2" s="1">
-        <v>6682.1999999999935</v>
+        <v>33103.999999999971</v>
       </c>
       <c r="S2" s="1">
-        <v>250373.95544999951</v>
+        <v>9860.7999999999975</v>
       </c>
       <c r="T2" s="1">
-        <v>11.999999999999989</v>
+        <v>1012325.2460999991</v>
       </c>
       <c r="U2" s="1">
-        <v>996.99999999999989</v>
+        <v>19</v>
+      </c>
+      <c r="V2" s="1">
+        <v>787.99999999999989</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>22734000</v>
+        <v>22739000</v>
       </c>
       <c r="B3" s="1">
         <v>2022</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-8.9999999999999734</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-25.999999999999972</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1">
-        <v>17553.999999999989</v>
-      </c>
       <c r="H3" s="1">
-        <v>5724</v>
+        <v>15038.999999999991</v>
       </c>
       <c r="I3" s="1">
-        <v>17181.98805</v>
+        <v>2043</v>
       </c>
       <c r="J3" s="1">
-        <v>10266.1</v>
+        <v>17624.230049999998</v>
       </c>
       <c r="K3" s="1">
-        <v>500.99999999999977</v>
+        <v>4332.9999999999936</v>
       </c>
       <c r="L3" s="1">
-        <v>501756.90374999988</v>
+        <v>239.99999999999969</v>
       </c>
       <c r="M3" s="1">
-        <v>32.9</v>
+        <v>684065.85014999984</v>
       </c>
       <c r="N3" s="1">
-        <v>69.999999999999986</v>
+        <v>29.7</v>
       </c>
       <c r="O3" s="1">
-        <v>67.999999999999972</v>
+        <v>45.999999999999993</v>
       </c>
       <c r="P3" s="1">
-        <v>177.4</v>
+        <v>49.999999999999979</v>
       </c>
       <c r="Q3" s="1">
-        <v>15040.99999999998</v>
+        <v>115.09999999999989</v>
       </c>
       <c r="R3" s="1">
-        <v>6682.1999999999935</v>
+        <v>33103.999999999971</v>
       </c>
       <c r="S3" s="1">
-        <v>250373.95544999951</v>
+        <v>9860.7999999999975</v>
       </c>
       <c r="T3" s="1">
-        <v>11.999999999999989</v>
+        <v>1012325.2460999991</v>
       </c>
       <c r="U3" s="1">
-        <v>996.99999999999989</v>
+        <v>19</v>
+      </c>
+      <c r="V3" s="1">
+        <v>787.99999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/recommendation system/input.xlsx
+++ b/migforecasting/clustering/recommendation system/input.xlsx
@@ -96,7 +96,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>!mundist</t>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/recommendation system/input.xlsx
+++ b/migforecasting/clustering/recommendation system/input.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>saldo</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>profile</t>
-  </si>
-  <si>
-    <t>гибрид (лучший)</t>
   </si>
   <si>
     <t>Перевозский</t>
@@ -445,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>20</v>
@@ -537,7 +534,7 @@
         <v>2022</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -546,10 +543,10 @@
         <v>-8.9999999999999734</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1">
         <v>15038.999999999991</v>
@@ -579,7 +576,7 @@
         <v>49.999999999999979</v>
       </c>
       <c r="Q2" s="1">
-        <v>115.09999999999989</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="R2" s="1">
         <v>33103.999999999971</v>
@@ -594,74 +591,6 @@
         <v>19</v>
       </c>
       <c r="V2" s="1">
-        <v>787.99999999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>22739000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-8.9999999999999734</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1">
-        <v>15038.999999999991</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2043</v>
-      </c>
-      <c r="J3" s="1">
-        <v>17624.230049999998</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4332.9999999999936</v>
-      </c>
-      <c r="L3" s="1">
-        <v>239.99999999999969</v>
-      </c>
-      <c r="M3" s="1">
-        <v>684065.85014999984</v>
-      </c>
-      <c r="N3" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="O3" s="1">
-        <v>45.999999999999993</v>
-      </c>
-      <c r="P3" s="1">
-        <v>49.999999999999979</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>115.09999999999989</v>
-      </c>
-      <c r="R3" s="1">
-        <v>33103.999999999971</v>
-      </c>
-      <c r="S3" s="1">
-        <v>9860.7999999999975</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1012325.2460999991</v>
-      </c>
-      <c r="U3" s="1">
-        <v>19</v>
-      </c>
-      <c r="V3" s="1">
         <v>787.99999999999989</v>
       </c>
     </row>
